--- a/average_satisfaction_divergent_g4.xlsx
+++ b/average_satisfaction_divergent_g4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20644EF7-3A35-47B5-89BE-9B900DFEC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430EF6D7-86E5-4D74-BA69-FEE6DF69958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{EA42F5A0-D3A3-4BBB-BB48-680626775FFE}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{D530558A-DB7F-4FD9-A66A-4BB1EB5C758C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B4D2D9-47F8-47A5-8C01-B4D19D106D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3FD1C1-A5BE-4A24-BC67-367D79EB2359}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.1407663835433783</v>
+        <v>0.9815804774236101</v>
       </c>
       <c r="B1">
-        <v>0.91557596552427645</v>
+        <v>1.0494411810403592</v>
       </c>
       <c r="C1">
-        <v>1.0297846097856715</v>
+        <v>0.91543216631341073</v>
       </c>
       <c r="D1">
-        <v>0.96670187187615375</v>
+        <v>1.1773081269353074</v>
       </c>
       <c r="E1">
-        <v>0.98889193120226992</v>
+        <v>0.92775647144801798</v>
       </c>
       <c r="F1">
-        <v>1.0248706847893658</v>
+        <v>0.96082315131522722</v>
       </c>
       <c r="G1">
+        <v>1.0235327996581653</v>
+      </c>
+      <c r="H1">
+        <v>0.95510148300229325</v>
+      </c>
+      <c r="I1">
+        <v>0.94397887412369386</v>
+      </c>
+      <c r="J1">
+        <v>0.90162572058218093</v>
+      </c>
+      <c r="K1">
+        <v>1.0008987158775737</v>
+      </c>
+      <c r="L1">
+        <v>0.88213789216689165</v>
+      </c>
+      <c r="M1">
+        <v>0.94619910491038561</v>
+      </c>
+      <c r="N1">
         <v>0.89967673509387824</v>
       </c>
-      <c r="H1">
-        <v>0.93321553314434169</v>
-      </c>
-      <c r="I1">
-        <v>0.95968668890051545</v>
-      </c>
-      <c r="J1">
-        <v>1.0699623550989652</v>
-      </c>
-      <c r="K1">
-        <v>1.0605348831811268</v>
-      </c>
-      <c r="L1">
-        <v>0.94313655228026971</v>
-      </c>
-      <c r="M1">
-        <v>0.98010118355243259</v>
-      </c>
-      <c r="N1">
-        <v>1.1143755750982083</v>
-      </c>
       <c r="O1">
-        <v>0.92736233435327375</v>
+        <v>0.88533938112355592</v>
       </c>
       <c r="P1">
-        <v>0.90408656218113226</v>
+        <v>1.0191721299524787</v>
       </c>
       <c r="Q1">
-        <v>1.1496279474092228</v>
+        <v>0.89361496822440678</v>
       </c>
       <c r="R1">
-        <v>1.0128235518503996</v>
+        <v>0.89914148938651195</v>
       </c>
       <c r="S1">
-        <v>0.98482332060868827</v>
+        <v>0.93849208416970797</v>
       </c>
       <c r="T1">
-        <v>1.1653950549271626</v>
+        <v>1.0623121434120333</v>
       </c>
       <c r="U1">
-        <v>0.99958872723048897</v>
+        <v>1.0051269969290373</v>
       </c>
       <c r="V1">
-        <v>0.91681808567203793</v>
+        <v>1.0700600010970682</v>
       </c>
       <c r="W1">
-        <v>0.97223797141506219</v>
+        <v>0.90803215382140456</v>
       </c>
       <c r="X1">
-        <v>1.0125686954000443</v>
+        <v>0.87891429567661561</v>
       </c>
       <c r="Y1">
-        <v>0.94721718292932344</v>
+        <v>0.93359113722174869</v>
       </c>
       <c r="Z1">
-        <v>1.029977540428251</v>
+        <v>0.94852584833223008</v>
       </c>
       <c r="AA1">
-        <v>0.99998628760356323</v>
+        <v>1.0382896382714615</v>
       </c>
       <c r="AB1">
-        <v>0.8684162123881215</v>
+        <v>0.97756086902197359</v>
       </c>
       <c r="AC1">
-        <v>0.97058092928988982</v>
+        <v>1.1329294448046558</v>
       </c>
       <c r="AD1">
-        <v>1.0687154545942594</v>
+        <v>0.89046422886463361</v>
       </c>
       <c r="AE1">
-        <v>0.9964712483701923</v>
+        <v>1.112745464227145</v>
       </c>
       <c r="AF1">
-        <v>0.991234488771633</v>
+        <v>0.92162905375271564</v>
       </c>
       <c r="AG1">
-        <v>0.95698439062538443</v>
+        <v>0.91981869311992115</v>
       </c>
       <c r="AH1">
-        <v>0.98997307448571514</v>
+        <v>1.0483947767008139</v>
       </c>
       <c r="AI1">
-        <v>0.77935544044498717</v>
+        <v>1.0874423548386338</v>
       </c>
       <c r="AJ1">
-        <v>0.92040579343392293</v>
+        <v>0.86633538930951715</v>
       </c>
       <c r="AK1">
-        <v>1.0425903978984632</v>
+        <v>1.0463486532547219</v>
       </c>
       <c r="AL1">
-        <v>0.87265101814220158</v>
+        <v>0.99024445881917278</v>
       </c>
       <c r="AM1">
-        <v>0.82492414344586196</v>
+        <v>0.91554844438684169</v>
       </c>
       <c r="AN1">
-        <v>0.99355558008252098</v>
+        <v>0.89196923945637552</v>
       </c>
       <c r="AO1">
-        <v>0.98392612798911883</v>
+        <v>0.91669443339866952</v>
       </c>
       <c r="AP1">
-        <v>1.1198932530875689</v>
+        <v>0.8202322820235638</v>
       </c>
       <c r="AQ1">
-        <v>1.0220411551316784</v>
+        <v>0.88881882511226906</v>
       </c>
       <c r="AR1">
-        <v>0.89453071626662783</v>
+        <v>0.95691894204794803</v>
       </c>
       <c r="AS1">
-        <v>0.99857428671430504</v>
+        <v>0.96783303665169707</v>
       </c>
       <c r="AT1">
-        <v>1.0564206201124375</v>
+        <v>0.97908479074836396</v>
       </c>
       <c r="AU1">
-        <v>1.0492613333783734</v>
+        <v>0.86653681553393924</v>
       </c>
       <c r="AV1">
-        <v>0.98136149118618232</v>
+        <v>0.95077033327591631</v>
       </c>
       <c r="AW1">
+        <v>1.0479256824517331</v>
+      </c>
+      <c r="AX1">
+        <v>1.063713288607179</v>
+      </c>
+      <c r="AY1">
+        <v>1.0790054548890011</v>
+      </c>
+      <c r="AZ1">
+        <v>1.1172786713693337</v>
+      </c>
+      <c r="BA1">
+        <v>1.0518806586492009</v>
+      </c>
+      <c r="BB1">
+        <v>0.89678325325270691</v>
+      </c>
+      <c r="BC1">
+        <v>0.93764033671987812</v>
+      </c>
+      <c r="BD1">
         <v>1.0440522812758357</v>
       </c>
-      <c r="AX1">
-        <v>1.0201781539492178</v>
-      </c>
-      <c r="AY1">
-        <v>0.90505551707892395</v>
-      </c>
-      <c r="AZ1">
-        <v>0.98023705929661809</v>
-      </c>
-      <c r="BA1">
-        <v>0.83990375410339779</v>
-      </c>
-      <c r="BB1">
-        <v>0.9699554097463613</v>
-      </c>
-      <c r="BC1">
-        <v>0.80994251331207856</v>
-      </c>
-      <c r="BD1">
-        <v>0.94744535360362225</v>
-      </c>
       <c r="BE1">
-        <v>0.888458896512614</v>
+        <v>0.94612298568687281</v>
       </c>
       <c r="BF1">
-        <v>0.87341412207418612</v>
+        <v>0.9191623215184368</v>
       </c>
       <c r="BG1">
-        <v>0.96902486640704788</v>
+        <v>0.91925677563498542</v>
       </c>
       <c r="BH1">
+        <v>0.97335449174127553</v>
+      </c>
+      <c r="BI1">
+        <v>0.99290798439075023</v>
+      </c>
+      <c r="BJ1">
+        <v>1.0961548518429765</v>
+      </c>
+      <c r="BK1">
+        <v>0.95221148252457066</v>
+      </c>
+      <c r="BL1">
+        <v>1.0440928058972383</v>
+      </c>
+      <c r="BM1">
+        <v>1.1412381090462735</v>
+      </c>
+      <c r="BN1">
+        <v>0.99815388793429194</v>
+      </c>
+      <c r="BO1">
+        <v>1.0682033652287541</v>
+      </c>
+      <c r="BP1">
+        <v>0.93388131912373828</v>
+      </c>
+      <c r="BQ1">
         <v>0.95258448949023644</v>
       </c>
-      <c r="BI1">
-        <v>0.89727072470135971</v>
-      </c>
-      <c r="BJ1">
-        <v>1.0787061156233402</v>
-      </c>
-      <c r="BK1">
-        <v>1.0235327996581653</v>
-      </c>
-      <c r="BL1">
-        <v>1.0923159990064757</v>
-      </c>
-      <c r="BM1">
-        <v>1.1358289990548076</v>
-      </c>
-      <c r="BN1">
-        <v>0.97927048753691948</v>
-      </c>
-      <c r="BO1">
-        <v>0.95500488863139699</v>
-      </c>
-      <c r="BP1">
-        <v>0.90012007103344271</v>
-      </c>
-      <c r="BQ1">
-        <v>0.96985291163100729</v>
-      </c>
       <c r="BR1">
-        <v>0.96017961051284273</v>
+        <v>0.96757507252888009</v>
       </c>
       <c r="BS1">
-        <v>0.94612298568687281</v>
+        <v>0.97732384833280084</v>
       </c>
       <c r="BT1">
-        <v>0.9908009978144745</v>
+        <v>0.97344824895674198</v>
       </c>
       <c r="BU1">
-        <v>0.8983183310051579</v>
+        <v>0.88872047144048361</v>
       </c>
       <c r="BV1">
-        <v>1.0874423548386338</v>
+        <v>0.91292279956476075</v>
       </c>
       <c r="BW1">
-        <v>1.0106068973041475</v>
+        <v>0.94201951202288137</v>
       </c>
       <c r="BX1">
-        <v>0.93035844775868881</v>
+        <v>1.1127965232834349</v>
       </c>
       <c r="BY1">
-        <v>1.0812630446155609</v>
+        <v>0.93283753164869054</v>
       </c>
       <c r="BZ1">
-        <v>0.9528945149966761</v>
+        <v>1.0699084876012885</v>
       </c>
       <c r="CA1">
-        <v>0.93152636592411864</v>
+        <v>1.0501317807860087</v>
       </c>
       <c r="CB1">
-        <v>0.87860101373944866</v>
+        <v>0.90800381199107094</v>
       </c>
       <c r="CC1">
-        <v>1.0140681051025413</v>
+        <v>1.1471725767783698</v>
       </c>
       <c r="CD1">
-        <v>0.93133518285175076</v>
+        <v>0.99783295761146573</v>
       </c>
       <c r="CE1">
-        <v>0.93388131912373817</v>
+        <v>1.0321518449273932</v>
       </c>
       <c r="CF1">
-        <v>1.0573622712672039</v>
+        <v>0.93613783644221937</v>
       </c>
       <c r="CG1">
-        <v>0.81735793302120219</v>
+        <v>0.93617777238701461</v>
       </c>
       <c r="CH1">
-        <v>1.0188866493343656</v>
+        <v>0.91225408474490755</v>
       </c>
       <c r="CI1">
-        <v>0.95402745582531789</v>
+        <v>0.97433292087124035</v>
       </c>
       <c r="CJ1">
-        <v>0.98658642073076863</v>
+        <v>1.2057529798777982</v>
       </c>
       <c r="CK1">
-        <v>1.1471725767783698</v>
+        <v>1.0131348323370089</v>
       </c>
       <c r="CL1">
-        <v>0.97347008004389257</v>
+        <v>1.1366689998642476</v>
       </c>
       <c r="CM1">
-        <v>0.94851627700556718</v>
+        <v>1.0296912380273782</v>
       </c>
       <c r="CN1">
-        <v>1.0720654200855591</v>
+        <v>0.91122203822571213</v>
       </c>
       <c r="CO1">
-        <v>0.95294565256764652</v>
+        <v>1.0630688032561484</v>
       </c>
       <c r="CP1">
-        <v>0.99175545372241092</v>
+        <v>0.94842361616220716</v>
       </c>
       <c r="CQ1">
-        <v>1.0445618420502076</v>
+        <v>1.2264060123405889</v>
       </c>
       <c r="CR1">
-        <v>0.85896000205657097</v>
+        <v>0.98396216524261926</v>
       </c>
       <c r="CS1">
-        <v>0.98396216524261892</v>
+        <v>1.1345487134048722</v>
       </c>
       <c r="CT1">
-        <v>0.99016015211614383</v>
+        <v>0.98693385706563497</v>
       </c>
       <c r="CU1">
-        <v>1.0567883400418263</v>
+        <v>0.87175055542582613</v>
       </c>
       <c r="CV1">
-        <v>1.1340841623259155</v>
+        <v>1.0268462181334617</v>
       </c>
     </row>
   </sheetData>
